--- a/rcc/PETA KELOMPOK PEKERJAAN.xlsx
+++ b/rcc/PETA KELOMPOK PEKERJAAN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rolly\Desktop\2. Rolly Maulana Awangga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rolly\Desktop\lsp\rcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CCDACE-92AB-43EE-B6FB-9A0130A3139D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8487D1E6-1B79-4442-9891-59EC6B2C3577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,6 +709,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -730,6 +770,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -740,32 +789,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -793,24 +821,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -820,42 +830,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1165,63 +1165,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="36"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
       <c r="Q3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1229,28 +1229,28 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="19" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="33"/>
       <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="19"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1263,23 +1263,23 @@
       <c r="P4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="27"/>
+      <c r="R4" s="41"/>
       <c r="S4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="28"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1289,7 @@
       <c r="K5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="19"/>
+      <c r="L5" s="33"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="23"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="24"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="24"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="24"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="24"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="24"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="24"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="24"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="24"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="25"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1734,67 +1734,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
       <c r="R3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1802,58 +1802,58 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="19" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="33"/>
       <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="19" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="34"/>
+      <c r="S4" s="44"/>
       <c r="T4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="28"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1863,12 +1863,12 @@
       <c r="K5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
       <c r="R5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1880,8 +1880,8 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1902,8 +1902,8 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1924,8 +1924,8 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1947,8 +1947,8 @@
       <c r="Y8" s="7"/>
     </row>
     <row r="9" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1969,8 +1969,8 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1991,8 +1991,8 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2013,8 +2013,8 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2035,8 +2035,8 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2057,8 +2057,8 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2079,8 +2079,8 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2101,8 +2101,8 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2123,8 +2123,8 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2145,8 +2145,8 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2167,8 +2167,8 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2189,8 +2189,8 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2211,8 +2211,8 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2233,8 +2233,8 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2255,8 +2255,8 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2278,6 +2278,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A6:A23"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B6:B23"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
@@ -2294,12 +2300,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="M3:M5"/>
-    <mergeCell ref="A6:A23"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B6:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2308,10 +2308,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B9F90D-D04D-4480-BDBC-47E221D6C332}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,126 +2341,126 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="26" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="38"/>
-    </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19" t="s">
+      <c r="S3" s="73"/>
+      <c r="T3" s="74"/>
+    </row>
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="19" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="33"/>
       <c r="K4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="19" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="34"/>
+      <c r="S4" s="44"/>
       <c r="T4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="28"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2467,12 +2470,12 @@
       <c r="K5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
       <c r="R5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2484,30 +2487,30 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="31.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="61">
         <v>1</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="19">
         <v>1</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="63" t="s">
         <v>62</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
         <v>1</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="39"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="69"/>
       <c r="K6" s="2" t="s">
         <v>60</v>
       </c>
@@ -2526,24 +2529,24 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="55">
+      <c r="A7" s="62"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="19">
         <v>2</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="60"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>2</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="40"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="70"/>
       <c r="K7" s="2" t="s">
         <v>60</v>
       </c>
@@ -2562,24 +2565,24 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="55">
+      <c r="A8" s="62"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="19">
         <v>3</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="61"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9">
         <v>3</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="40"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="70"/>
       <c r="K8" s="2" t="s">
         <v>60</v>
       </c>
@@ -2598,26 +2601,26 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="55">
+      <c r="A9" s="62"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="19">
         <v>4</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="63" t="s">
         <v>63</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="10">
         <v>4</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="40"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="2" t="s">
         <v>60</v>
       </c>
@@ -2636,24 +2639,24 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="55">
+      <c r="A10" s="62"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="19">
         <v>5</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9">
         <v>5</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="40"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="2" t="s">
         <v>60</v>
       </c>
@@ -2672,26 +2675,26 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="55">
+      <c r="A11" s="62"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="19">
         <v>6</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="63" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="11">
         <v>6</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="40"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="2" t="s">
         <v>60</v>
       </c>
@@ -2710,24 +2713,24 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="55">
+      <c r="A12" s="62"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="19">
         <v>7</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="60"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9">
         <v>7</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="39"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="69"/>
       <c r="K12" s="2" t="s">
         <v>60</v>
       </c>
@@ -2746,24 +2749,24 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="55">
+      <c r="A13" s="62"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="19">
         <v>8</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="61"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
         <v>8</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="40"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="70"/>
       <c r="K13" s="2" t="s">
         <v>60</v>
       </c>
@@ -2782,30 +2785,30 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="55">
+      <c r="A14" s="62"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="19">
         <v>9</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="63" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9">
         <v>9</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="40"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="62" t="s">
+      <c r="L14" s="23" t="s">
         <v>74</v>
       </c>
       <c r="M14" s="18"/>
@@ -2820,24 +2823,24 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="55">
+      <c r="A15" s="62"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="19">
         <v>10</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="61"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="8"/>
       <c r="H15" s="10">
         <v>10</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="40"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="2" t="s">
         <v>60</v>
       </c>
@@ -2856,30 +2859,30 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="63">
+      <c r="A16" s="62"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="24">
         <v>11</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="26" t="s">
         <v>53</v>
       </c>
       <c r="F16" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68">
+      <c r="G16" s="27"/>
+      <c r="H16" s="28">
         <v>11</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="73" t="s">
+      <c r="I16" s="72"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="74" t="s">
+      <c r="L16" s="32" t="s">
         <v>76</v>
       </c>
       <c r="M16" s="16" t="s">
@@ -2896,28 +2899,28 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="63">
+      <c r="A17" s="62"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="24">
         <v>12</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68">
+      <c r="F17" s="67"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28">
         <v>12</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="73" t="s">
+      <c r="I17" s="72"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="68" t="s">
+      <c r="L17" s="28" t="s">
         <v>77</v>
       </c>
       <c r="M17" s="16" t="s">
@@ -2934,28 +2937,28 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="63">
+      <c r="A18" s="62"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="24">
         <v>13</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71">
+      <c r="F18" s="67"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30">
         <v>13</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="73" t="s">
+      <c r="I18" s="53"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="68" t="s">
+      <c r="L18" s="28" t="s">
         <v>78</v>
       </c>
       <c r="M18" s="16" t="s">
@@ -2972,28 +2975,28 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="63">
+      <c r="A19" s="62"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="24">
         <v>14</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="71">
+      <c r="F19" s="68"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30">
         <v>14</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="73" t="s">
+      <c r="I19" s="54"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="68" t="s">
+      <c r="L19" s="28" t="s">
         <v>79</v>
       </c>
       <c r="M19" s="16" t="s">
@@ -3010,16 +3013,16 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="57"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="12"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="48"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="58"/>
       <c r="K20" s="1"/>
       <c r="L20" s="13"/>
       <c r="M20" s="18"/>
@@ -3032,16 +3035,16 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="57"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="12"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="48"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="58"/>
       <c r="K21" s="1"/>
       <c r="L21" s="14"/>
       <c r="M21" s="18"/>
@@ -3054,16 +3057,16 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="50"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="57"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="12"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="48"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="58"/>
       <c r="K22" s="1"/>
       <c r="L22" s="9"/>
       <c r="M22" s="18"/>
@@ -3076,16 +3079,16 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:20" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="50"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="57"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="12"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="48"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="58"/>
       <c r="K23" s="1"/>
       <c r="L23" s="13"/>
       <c r="M23" s="16"/>
@@ -3098,16 +3101,16 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="57"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="12"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="48"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="58"/>
       <c r="K24" s="1"/>
       <c r="L24" s="9"/>
       <c r="M24" s="18"/>
@@ -3120,16 +3123,16 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="57"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="12"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="48"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="58"/>
       <c r="K25" s="1"/>
       <c r="L25" s="9"/>
       <c r="M25" s="18"/>
@@ -3142,16 +3145,16 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="15"/>
       <c r="G26" s="12"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="1"/>
       <c r="L26" s="9"/>
       <c r="M26" s="16"/>
@@ -3164,16 +3167,16 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="15"/>
       <c r="G27" s="12"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="1"/>
       <c r="L27" s="13"/>
       <c r="M27" s="18"/>
@@ -3187,6 +3190,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="J6:J11"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="I18:I27"/>
+    <mergeCell ref="J18:J27"/>
+    <mergeCell ref="B6:B27"/>
+    <mergeCell ref="A6:A27"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="I6:I11"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
@@ -3203,26 +3224,8 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="N4:N5"/>
-    <mergeCell ref="I18:I27"/>
-    <mergeCell ref="J18:J27"/>
-    <mergeCell ref="B6:B27"/>
-    <mergeCell ref="A6:A27"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="J6:J11"/>
-    <mergeCell ref="I6:I11"/>
-    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>